--- a/data/trans_bre/P29_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P29_R-Edad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-17.89943585599836</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-6.236229111976776</v>
+        <v>-6.236229111976765</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.2981638489366865</v>
@@ -649,7 +649,7 @@
         <v>-0.2911160473637761</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.1244566196974543</v>
+        <v>-0.1244566196974541</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-23.04213552846912</v>
+        <v>-22.9901698282907</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-24.84504621398345</v>
+        <v>-25.76383874531781</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-24.36723947692783</v>
+        <v>-24.79964951586005</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-17.50828494741071</v>
+        <v>-17.05003463874974</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.3892469299641064</v>
+        <v>-0.386301929686359</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.391470906771988</v>
+        <v>-0.3919967419043448</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.3763668414415404</v>
+        <v>-0.3828926639435363</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.321995059253682</v>
+        <v>-0.3055386836771978</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-10.92055472955995</v>
+        <v>-10.95266322607469</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-12.43240506779081</v>
+        <v>-12.63693052146927</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-10.27908194052349</v>
+        <v>-10.51090980140514</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.122062004449829</v>
+        <v>4.392820375606732</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.1990200590338947</v>
+        <v>-0.2007944296263723</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.2133060532097461</v>
+        <v>-0.2107365774151328</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>-0.175761575900019</v>
+        <v>-0.1813422630643486</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.08818614274506623</v>
+        <v>0.09513123846719022</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-21.66642452865841</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-18.39910407731978</v>
+        <v>-18.39910407731979</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.4886020535157013</v>
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-38.94874763967347</v>
+        <v>-38.76034199232306</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-37.94303812203505</v>
+        <v>-38.22720159644214</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-27.25573414630415</v>
+        <v>-26.84663678101897</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-25.8479080604369</v>
+        <v>-25.99948247805911</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5535200514964529</v>
+        <v>-0.5515743652632201</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5440102706608426</v>
+        <v>-0.5460977762647772</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4219521536787054</v>
+        <v>-0.4166829716202064</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3912702408685683</v>
+        <v>-0.3884967722490101</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-28.19367062605032</v>
+        <v>-28.36108405807752</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-26.96082544090053</v>
+        <v>-27.11012690157534</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-15.90442695674156</v>
+        <v>-16.16103029437879</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-10.15602172996278</v>
+        <v>-10.68216662446186</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.4243766391095343</v>
+        <v>-0.4229379536404404</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.4120827203272722</v>
+        <v>-0.4146910134344107</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.2640386869915812</v>
+        <v>-0.2657439897039102</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.1798472168544794</v>
+        <v>-0.184307334434984</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-26.59555823284744</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-21.20877357150183</v>
+        <v>-21.20877357150181</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.4831555065154335</v>
@@ -849,7 +849,7 @@
         <v>-0.4116906141663088</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.3458780594173009</v>
+        <v>-0.3458780594173007</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-35.8367949998957</v>
+        <v>-35.55609940726648</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-33.75584592493994</v>
+        <v>-33.5821122590119</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-31.68248237261913</v>
+        <v>-31.42602785306238</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-26.81500396226182</v>
+        <v>-26.83631915400223</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.5448736913538345</v>
+        <v>-0.5478833445902815</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5149606140876755</v>
+        <v>-0.5156008273043889</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.4742466383001824</v>
+        <v>-0.4757583378199494</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.4131949949275025</v>
+        <v>-0.418978750951307</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-24.89953483024862</v>
+        <v>-24.2874561965211</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-23.29028065158521</v>
+        <v>-22.97164260678392</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-20.57192366285672</v>
+        <v>-21.02448752876103</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-16.117988112761</v>
+        <v>-15.48928414387159</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.4086622156193713</v>
+        <v>-0.4065395007697784</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.382902191144165</v>
+        <v>-0.3788111156550782</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>-0.3308218850882075</v>
+        <v>-0.3363312453801325</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.2753155678374889</v>
+        <v>-0.2732789183332346</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-19.30967034376401</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-18.46548060512422</v>
+        <v>-18.46548060512424</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.5336769110913857</v>
@@ -949,7 +949,7 @@
         <v>-0.3193290406184062</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.3116290588143654</v>
+        <v>-0.3116290588143656</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-38.14341880819648</v>
+        <v>-37.60934356117095</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-34.66015500218632</v>
+        <v>-34.49706269100943</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-24.53809506359285</v>
+        <v>-24.48000617767941</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-23.13305639379924</v>
+        <v>-23.27128306783415</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6019922423583186</v>
+        <v>-0.5980755288695698</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5197526737857904</v>
+        <v>-0.5217451097505508</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3924038580840211</v>
+        <v>-0.3904639827556759</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3765794744949071</v>
+        <v>-0.3738326131230627</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-26.6017228178793</v>
+        <v>-26.05094011751662</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-22.99530934405643</v>
+        <v>-23.01917463167961</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-13.35891234208647</v>
+        <v>-13.3050196796186</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-13.57739516358883</v>
+        <v>-13.8170323444027</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.4587224154064509</v>
+        <v>-0.4498539212881296</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.3741904373328159</v>
+        <v>-0.3742180745964232</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.2332064139692744</v>
+        <v>-0.2354390405177292</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.241057942511653</v>
+        <v>-0.242411049634213</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-33.45220027856386</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-21.97311889058801</v>
+        <v>-21.973118890588</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.5990379842532931</v>
@@ -1049,7 +1049,7 @@
         <v>-0.5564324743218425</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.3867787835229096</v>
+        <v>-0.3867787835229095</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-34.07826276048614</v>
+        <v>-33.93942976012492</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-35.12352859121113</v>
+        <v>-34.9461508653945</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-40.16220195882607</v>
+        <v>-39.73979116433812</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-27.3070252925844</v>
+        <v>-27.32124397468748</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.6814834417135599</v>
+        <v>-0.6834892950038014</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.6137294327404568</v>
+        <v>-0.6192043573974987</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.6362691679644567</v>
+        <v>-0.6261960334097146</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.459190216816929</v>
+        <v>-0.4530149975835453</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-21.20202748521602</v>
+        <v>-20.81453610911451</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-21.81828553215095</v>
+        <v>-21.7292315656476</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-27.63654021800919</v>
+        <v>-26.09764151540768</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-17.28360450951111</v>
+        <v>-16.93592718536036</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.4918166235860821</v>
+        <v>-0.4883343958669211</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.4304894066831404</v>
+        <v>-0.4375144642287421</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.4783798339684661</v>
+        <v>-0.462005517845529</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.3199954758001965</v>
+        <v>-0.3125020429242072</v>
       </c>
     </row>
     <row r="19">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-41.61986229989525</v>
+        <v>-41.44408359606779</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-40.91987238914066</v>
+        <v>-40.45374797714371</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-41.95485322648555</v>
+        <v>-41.78247981369398</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-37.30149563698834</v>
+        <v>-37.09197188657104</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.8647582064618494</v>
+        <v>-0.8682380408990333</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.762598209400955</v>
+        <v>-0.7583730568057344</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.7503900697105947</v>
+        <v>-0.7397433674268001</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.6102383613880507</v>
+        <v>-0.6088091675476243</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-29.27166796372718</v>
+        <v>-29.03829311696796</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-25.58118126745484</v>
+        <v>-26.13641632335061</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>-28.37599015807584</v>
+        <v>-28.45428806817286</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>-27.2070972413107</v>
+        <v>-27.31602062030459</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.7280749507042462</v>
+        <v>-0.7145290941447719</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.5716274859980043</v>
+        <v>-0.575995843963401</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.5797441074441637</v>
+        <v>-0.5644615080555854</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.4853049640059225</v>
+        <v>-0.4888060726647384</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>-28.33793988754886</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-31.93630884749033</v>
+        <v>-31.93630884749034</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.8579754830933878</v>
@@ -1249,7 +1249,7 @@
         <v>-0.756127674592708</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.7353709868655667</v>
+        <v>-0.7353709868655668</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-36.73685179792564</v>
+        <v>-37.00959586234224</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-35.27659721753637</v>
+        <v>-35.64338545285889</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-34.62833448944795</v>
+        <v>-34.45006504920079</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-36.85676625072662</v>
+        <v>-36.73300586696827</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.9192451986085746</v>
+        <v>-0.9180190657256675</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.8912726333216929</v>
+        <v>-0.8903417639278757</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.8361370897609999</v>
+        <v>-0.8449916501647644</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.787381624355895</v>
+        <v>-0.7862235626239209</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-22.89333504306493</v>
+        <v>-23.86963899194922</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-21.43552621783542</v>
+        <v>-21.47803693607771</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-21.83534724378107</v>
+        <v>-21.46224507976964</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-26.71770071634031</v>
+        <v>-26.62805235687327</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>-0.7593906274965215</v>
+        <v>-0.7507446310878633</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>-0.7228596490497502</v>
+        <v>-0.7201977667491707</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>-0.6203992082834022</v>
+        <v>-0.6425635301546818</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>-0.6709774770177908</v>
+        <v>-0.665713622133561</v>
       </c>
     </row>
     <row r="25">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-33.19877691761889</v>
+        <v>-33.06969221613529</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-32.29867084710823</v>
+        <v>-32.40216458087338</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-28.86666806641669</v>
+        <v>-28.9434469816403</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-24.38774323758095</v>
+        <v>-24.13645311859189</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5672390326693914</v>
+        <v>-0.5700088779535362</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.5314863871461204</v>
+        <v>-0.5325195856279253</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.4799230969274752</v>
+        <v>-0.4781318754070236</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4176201532372982</v>
+        <v>-0.4125933689850124</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>-28.4798734399174</v>
+        <v>-28.56951683426512</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>-27.54892174118817</v>
+        <v>-27.74811077423707</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>-24.28623621491415</v>
+        <v>-24.28743023981881</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>-19.60061525607622</v>
+        <v>-19.33600450908411</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.5073726280004411</v>
+        <v>-0.5091071941970714</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.4705254516366764</v>
+        <v>-0.4733279118373967</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.4176465058996682</v>
+        <v>-0.4143022378782656</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.351715665707074</v>
+        <v>-0.3469236022617014</v>
       </c>
     </row>
     <row r="28">
